--- a/src/main/resources/jxls_templates/uptimetplmtemplate.xlsx
+++ b/src/main/resources/jxls_templates/uptimetplmtemplate.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>产线名称</t>
+  </si>
   <si>
     <t>班次名称</t>
   </si>
@@ -1465,10 +1468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1477,13 +1480,16 @@
     <col min="2" max="2" width="22.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="19.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="22.1111111111111" customWidth="1"/>
-    <col min="5" max="6" width="17.4444444444444" customWidth="1"/>
-    <col min="7" max="8" width="10.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="21.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="20.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1"/>
-    <row r="2" ht="24.95" customHeight="1" spans="1:9">
+    <row r="2" ht="24.95" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,8 +1514,11 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="2:9">

--- a/src/main/resources/jxls_templates/uptimetplmtemplate.xlsx
+++ b/src/main/resources/jxls_templates/uptimetplmtemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="21923" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="稼动时间参数" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>产线名称</t>
+    <t>稼动时间模板</t>
   </si>
   <si>
-    <t>班次名称</t>
+    <t>*产线名称</t>
   </si>
   <si>
-    <t>基本稼动时间(分钟)</t>
+    <t>*班次名称</t>
   </si>
   <si>
-    <t>不稼动时间(分钟)</t>
+    <t>*基本稼动时间(分钟)</t>
   </si>
   <si>
-    <t>机种切换时间(分钟)</t>
+    <t>*不稼动时间(分钟)</t>
+  </si>
+  <si>
+    <t>*机种切换时间(分钟)</t>
   </si>
   <si>
     <t>加班时间(分钟)</t>
@@ -37,19 +40,19 @@
     <t>工作时间(分钟)</t>
   </si>
   <si>
-    <t>分类名称</t>
+    <t>*分类名称</t>
   </si>
   <si>
-    <t>参数名称</t>
+    <t>*参数名称</t>
   </si>
   <si>
-    <t>设定值(分钟)</t>
+    <t>*设定值(分钟)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -86,34 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -130,6 +105,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -139,41 +153,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,7 +206,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,49 +248,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,13 +386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,108 +422,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -440,28 +443,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +495,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,154 +568,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,52 +735,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1470,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1488,180 +1510,195 @@
     <col min="10" max="10" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1"/>
-    <row r="2" ht="24.95" customHeight="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="24.95" customHeight="1" spans="2:10">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="24.95" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="2:9">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
